--- a/BackTest/2020-01-24 BackTest PLY.xlsx
+++ b/BackTest/2020-01-24 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3238456.356209809</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3231837.73250981</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.766</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>3231971.827109809</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.713</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>3231971.827109809</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>2849555.93260981</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>2876109.304888089</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>2861979.304888089</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>2861979.304888089</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>2861979.304888089</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,15 +808,19 @@
         <v>2858986.475588089</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3.731</v>
       </c>
       <c r="J11" t="n">
-        <v>3.731</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>3.766</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,17 +849,17 @@
         <v>2778416.627288089</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.721</v>
       </c>
       <c r="J12" t="n">
-        <v>3.731</v>
+        <v>3.766</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -826,17 +890,17 @@
         <v>2881416.899988089</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.71</v>
       </c>
       <c r="J13" t="n">
-        <v>3.731</v>
+        <v>3.766</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -867,15 +931,19 @@
         <v>3087417.445288089</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.715</v>
       </c>
       <c r="J14" t="n">
-        <v>3.715</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>3.766</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -904,17 +972,17 @@
         <v>3258705.339888088</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3.718</v>
       </c>
       <c r="J15" t="n">
-        <v>3.715</v>
+        <v>3.766</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -945,17 +1013,17 @@
         <v>3403188.962188088</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.76</v>
       </c>
       <c r="J16" t="n">
-        <v>3.715</v>
+        <v>3.766</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -986,15 +1054,19 @@
         <v>3490798.962188088</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3.787</v>
       </c>
       <c r="J17" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>3.766</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1023,17 +1095,17 @@
         <v>3417788.962188088</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3.839</v>
       </c>
       <c r="J18" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1064,15 +1136,17 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.809</v>
+      </c>
       <c r="J19" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1103,11 +1177,13 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.787</v>
+      </c>
       <c r="J20" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1142,11 +1218,13 @@
         <v>3296578.539988088</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.787</v>
+      </c>
       <c r="J21" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1181,11 +1259,13 @@
         <v>1096578.539988088</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.777</v>
+      </c>
       <c r="J22" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1224,7 +1304,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1263,7 +1343,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1298,13 +1378,13 @@
         <v>300567.4787880884</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3.732</v>
       </c>
       <c r="J25" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1339,13 +1419,13 @@
         <v>232960.8024880884</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.752</v>
       </c>
       <c r="J26" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1380,13 +1460,13 @@
         <v>996435.0189880885</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1421,13 +1501,13 @@
         <v>997587.0189880885</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.747</v>
       </c>
       <c r="J28" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1462,11 +1542,13 @@
         <v>997365.0189880885</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.817</v>
+      </c>
       <c r="J29" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1501,11 +1583,13 @@
         <v>997496.0189880885</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.736</v>
+      </c>
       <c r="J30" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1540,11 +1624,13 @@
         <v>870571.5305880884</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.839</v>
+      </c>
       <c r="J31" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1579,11 +1665,13 @@
         <v>869508.9359880885</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.829</v>
+      </c>
       <c r="J32" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1618,11 +1706,13 @@
         <v>823191.0352880885</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.789</v>
+      </c>
       <c r="J33" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1657,11 +1747,13 @@
         <v>823322.0352880885</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.764</v>
+      </c>
       <c r="J34" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1696,11 +1788,13 @@
         <v>581385.5544880885</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.806</v>
+      </c>
       <c r="J35" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1735,11 +1829,13 @@
         <v>988222.8796880885</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.765</v>
+      </c>
       <c r="J36" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1774,11 +1870,13 @@
         <v>3308605.596688089</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.859</v>
+      </c>
       <c r="J37" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1817,7 +1915,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1856,7 +1954,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1895,7 +1993,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1934,7 +2032,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1973,7 +2071,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2012,7 +2110,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2051,7 +2149,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2090,7 +2188,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2129,7 +2227,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2168,7 +2266,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2207,7 +2305,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2246,7 +2344,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2285,7 +2383,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2324,7 +2422,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2363,7 +2461,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2402,7 +2500,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2441,7 +2539,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2480,7 +2578,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2519,7 +2617,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2558,7 +2656,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2597,7 +2695,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2636,7 +2734,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2675,7 +2773,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2714,7 +2812,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2753,7 +2851,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2792,7 +2890,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2831,7 +2929,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2870,7 +2968,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2909,7 +3007,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2948,7 +3046,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2987,7 +3085,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3026,7 +3124,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3065,7 +3163,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3104,7 +3202,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3143,7 +3241,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3182,7 +3280,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3221,7 +3319,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3260,7 +3358,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3299,7 +3397,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3338,7 +3436,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3377,7 +3475,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3416,7 +3514,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3455,7 +3553,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3494,7 +3592,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3533,7 +3631,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3572,7 +3670,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3611,7 +3709,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3650,7 +3748,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3689,7 +3787,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3728,7 +3826,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3767,7 +3865,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3806,7 +3904,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3845,7 +3943,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3884,7 +3982,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3923,7 +4021,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3962,7 +4060,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4001,7 +4099,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4040,7 +4138,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4079,7 +4177,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4118,7 +4216,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4157,7 +4255,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4196,7 +4294,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4235,7 +4333,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4274,7 +4372,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4313,7 +4411,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4352,7 +4450,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4391,7 +4489,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4430,7 +4528,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4469,7 +4567,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4508,7 +4606,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4547,7 +4645,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4586,7 +4684,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4625,7 +4723,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4664,7 +4762,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4703,7 +4801,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4742,7 +4840,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4781,7 +4879,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4820,7 +4918,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4859,7 +4957,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4898,7 +4996,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4937,7 +5035,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4976,7 +5074,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5015,7 +5113,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5054,7 +5152,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5093,7 +5191,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5132,7 +5230,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5171,7 +5269,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5210,7 +5308,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5249,7 +5347,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5288,7 +5386,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5327,7 +5425,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5366,7 +5464,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5405,7 +5503,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5444,7 +5542,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5483,7 +5581,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5522,7 +5620,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5561,7 +5659,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5600,7 +5698,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5639,7 +5737,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5678,7 +5776,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5717,7 +5815,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5756,7 +5854,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5795,7 +5893,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5834,7 +5932,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5873,7 +5971,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5912,7 +6010,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5951,7 +6049,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5990,7 +6088,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6029,7 +6127,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6068,7 +6166,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6107,7 +6205,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6146,7 +6244,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6185,7 +6283,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6220,11 +6318,11 @@
         <v>22897480.93450366</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6259,11 +6357,11 @@
         <v>23709792.81290367</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6302,7 +6400,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6341,7 +6439,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6380,7 +6478,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6419,7 +6517,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6458,7 +6556,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6497,7 +6595,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6536,7 +6634,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6575,7 +6673,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6614,7 +6712,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6653,7 +6751,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6692,7 +6790,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6731,7 +6829,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6770,7 +6868,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6809,7 +6907,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6848,7 +6946,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6887,7 +6985,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6922,21 +7020,23 @@
         <v>21132645.23423544</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>3.787</v>
+        <v>3.766</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>1.114224641529474</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.01427417182871</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6964,14 +7064,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7000,17 +7094,11 @@
         <v>20889238.66973544</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7042,14 +7130,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7078,17 +7160,11 @@
         <v>20334809.92970491</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7117,17 +7193,11 @@
         <v>20011741.06560491</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7156,17 +7226,11 @@
         <v>20250282.701059</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7195,17 +7259,11 @@
         <v>20234459.529959</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7234,17 +7292,11 @@
         <v>20234459.529959</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7273,17 +7325,11 @@
         <v>20494874.826459</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7312,17 +7358,11 @@
         <v>20226144.756259</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7351,17 +7391,11 @@
         <v>20276723.74260491</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7390,17 +7424,11 @@
         <v>20283636.82560491</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7429,17 +7457,11 @@
         <v>20969468.7914767</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7468,17 +7490,11 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7507,17 +7523,11 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7546,17 +7556,11 @@
         <v>22520682.72960512</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7585,17 +7589,11 @@
         <v>22500782.72960512</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7624,17 +7622,11 @@
         <v>22946339.27750512</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +7655,11 @@
         <v>24031427.36960167</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +7688,11 @@
         <v>25763886.98880512</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +7721,11 @@
         <v>26343203.69760512</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +7754,11 @@
         <v>24883867.89320512</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7787,11 @@
         <v>29141102.51530512</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7820,11 @@
         <v>29537289.03750512</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7853,11 @@
         <v>29378054.42420512</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7936,23 +7886,15 @@
         <v>30033711.09738312</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.787</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
-        <v>1.160566411407447</v>
-      </c>
-      <c r="M195" t="n">
-        <v>1.035887749595251</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7977,7 +7919,7 @@
         <v>30533546.25620512</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8010,7 +7952,7 @@
         <v>27689984.70447704</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8043,7 +7985,7 @@
         <v>27928406.46457704</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8076,7 +8018,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8109,7 +8051,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8142,7 +8084,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8175,7 +8117,7 @@
         <v>28651293.25097704</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8208,7 +8150,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8241,7 +8183,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8274,7 +8216,7 @@
         <v>28480483.26017703</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8307,7 +8249,7 @@
         <v>28439404.33837704</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8340,7 +8282,7 @@
         <v>26634946.0996094</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8373,7 +8315,7 @@
         <v>22199660.7864094</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8406,7 +8348,7 @@
         <v>23995466.84753494</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8439,7 +8381,7 @@
         <v>23882047.28123494</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8472,7 +8414,7 @@
         <v>23889077.05333494</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8505,7 +8447,7 @@
         <v>23792059.80803494</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8538,7 +8480,7 @@
         <v>23792059.80803494</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8571,7 +8513,7 @@
         <v>23854951.02043494</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8604,7 +8546,7 @@
         <v>23599992.60483893</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8637,7 +8579,7 @@
         <v>23652266.28093893</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8670,7 +8612,7 @@
         <v>24105723.83433893</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8703,7 +8645,7 @@
         <v>22202383.94803893</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8736,7 +8678,7 @@
         <v>22202383.94803893</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8769,7 +8711,7 @@
         <v>22057734.68893893</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8967,7 +8909,7 @@
         <v>20054388.05213893</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9297,7 +9239,7 @@
         <v>19892405.46903893</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9330,7 +9272,7 @@
         <v>19892405.46903893</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9396,7 +9338,7 @@
         <v>19372692.97053893</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9429,7 +9371,7 @@
         <v>19161800.23713893</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9462,7 +9404,7 @@
         <v>19577048.57903893</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9495,7 +9437,7 @@
         <v>19576927.57903893</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9528,7 +9470,7 @@
         <v>19534683.96953893</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9561,7 +9503,7 @@
         <v>19551683.96953893</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9792,7 +9734,7 @@
         <v>18727621.14793893</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -11046,7 +10988,7 @@
         <v>21484681.6063807</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11277,7 +11219,7 @@
         <v>19407565.89165402</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11310,7 +11252,7 @@
         <v>19498551.62465402</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11343,7 +11285,7 @@
         <v>19548551.62465402</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11376,7 +11318,7 @@
         <v>19589720.24585402</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11409,7 +11351,7 @@
         <v>19642153.16095402</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11442,7 +11384,7 @@
         <v>19642274.81555402</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11607,7 +11549,7 @@
         <v>20430001.67315402</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11640,7 +11582,7 @@
         <v>20358345.85075402</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11673,7 +11615,7 @@
         <v>20378820.97605402</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11706,7 +11648,7 @@
         <v>20573182.11065402</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11739,7 +11681,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11772,7 +11714,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11805,7 +11747,7 @@
         <v>19540808.16763053</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11838,7 +11780,7 @@
         <v>19300092.19723053</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11871,7 +11813,7 @@
         <v>19510822.90063053</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11904,7 +11846,7 @@
         <v>19246930.45243054</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11937,7 +11879,7 @@
         <v>17458750.04083053</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11970,7 +11912,7 @@
         <v>17458515.60133053</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12003,7 +11945,7 @@
         <v>18834889.20073053</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12036,7 +11978,7 @@
         <v>18746116.22393053</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12069,7 +12011,7 @@
         <v>18501452.82883053</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12102,7 +12044,7 @@
         <v>18508739.47093053</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12135,7 +12077,7 @@
         <v>18238972.58963053</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12168,7 +12110,7 @@
         <v>18270887.76223053</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12201,7 +12143,7 @@
         <v>18113957.26393053</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12234,7 +12176,7 @@
         <v>18069363.26533053</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12267,7 +12209,7 @@
         <v>18065025.55913053</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12300,7 +12242,7 @@
         <v>17794682.85263053</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12333,7 +12275,7 @@
         <v>17794682.85263053</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12366,7 +12308,7 @@
         <v>17833605.56853053</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12399,7 +12341,7 @@
         <v>17239629.31753054</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12432,7 +12374,7 @@
         <v>16703054.63803053</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12465,7 +12407,7 @@
         <v>14669826.75603054</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12498,7 +12440,7 @@
         <v>15186324.60193053</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12531,7 +12473,7 @@
         <v>15562552.59813054</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12564,7 +12506,7 @@
         <v>15438412.66573054</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12597,7 +12539,7 @@
         <v>15254431.16363054</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12663,7 +12605,7 @@
         <v>15224185.73303054</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12696,7 +12638,7 @@
         <v>15176578.70383053</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12729,7 +12671,7 @@
         <v>15314216.04803053</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12762,7 +12704,7 @@
         <v>15186399.60733053</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12795,7 +12737,7 @@
         <v>15186399.60733053</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -16337,6 +16279,6 @@
       <c r="M449" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest PLY.xlsx
+++ b/BackTest/2020-01-24 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>3238456.356209809</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>3231837.73250981</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -527,13 +523,9 @@
         <v>3.713</v>
       </c>
       <c r="J4" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.713</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -568,7 +560,7 @@
         <v>3.766</v>
       </c>
       <c r="J5" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -603,13 +595,11 @@
         <v>2849555.93260981</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -650,7 +640,7 @@
         <v>3.706</v>
       </c>
       <c r="J7" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -691,7 +681,7 @@
         <v>3.766</v>
       </c>
       <c r="J8" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -732,7 +722,7 @@
         <v>3.731</v>
       </c>
       <c r="J9" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -773,7 +763,7 @@
         <v>3.731</v>
       </c>
       <c r="J10" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -814,7 +804,7 @@
         <v>3.731</v>
       </c>
       <c r="J11" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -855,7 +845,7 @@
         <v>3.721</v>
       </c>
       <c r="J12" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -896,7 +886,7 @@
         <v>3.71</v>
       </c>
       <c r="J13" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -937,7 +927,7 @@
         <v>3.715</v>
       </c>
       <c r="J14" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -978,7 +968,7 @@
         <v>3.718</v>
       </c>
       <c r="J15" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1019,7 +1009,7 @@
         <v>3.76</v>
       </c>
       <c r="J16" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1060,7 +1050,7 @@
         <v>3.787</v>
       </c>
       <c r="J17" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1095,13 +1085,11 @@
         <v>3417788.962188088</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1136,13 +1124,11 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.809</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1177,13 +1163,11 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1218,13 +1202,11 @@
         <v>3296578.539988088</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1259,13 +1241,11 @@
         <v>1096578.539988088</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1304,7 +1284,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1343,7 +1323,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1378,13 +1358,11 @@
         <v>300567.4787880884</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.732</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1425,7 +1403,7 @@
         <v>3.752</v>
       </c>
       <c r="J26" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1466,7 +1444,7 @@
         <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1501,13 +1479,11 @@
         <v>997587.0189880885</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1542,13 +1518,11 @@
         <v>997365.0189880885</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1583,13 +1557,11 @@
         <v>997496.0189880885</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1624,13 +1596,11 @@
         <v>870571.5305880884</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1665,13 +1635,11 @@
         <v>869508.9359880885</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.829</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1706,13 +1674,11 @@
         <v>823191.0352880885</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1747,13 +1713,11 @@
         <v>823322.0352880885</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1788,13 +1752,11 @@
         <v>581385.5544880885</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.806</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1829,13 +1791,11 @@
         <v>988222.8796880885</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1870,13 +1830,11 @@
         <v>3308605.596688089</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1915,7 +1873,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1954,7 +1912,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1993,7 +1951,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2032,7 +1990,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2071,7 +2029,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2110,7 +2068,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2149,7 +2107,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2188,7 +2146,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2227,7 +2185,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2266,7 +2224,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2301,21 +2259,23 @@
         <v>9926279.070888456</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.766</v>
+        <v>3.713</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>1.069602747104767</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01427417182871</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2343,14 +2303,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2382,14 +2336,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2421,14 +2369,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2457,17 +2399,11 @@
         <v>9552769.303388456</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2535,17 +2465,11 @@
         <v>9121679.810688457</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2577,14 +2501,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2616,14 +2534,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2655,14 +2567,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2691,17 +2597,11 @@
         <v>8993119.839980839</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2733,14 +2633,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2769,17 +2663,11 @@
         <v>8780117.256580839</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2808,17 +2696,11 @@
         <v>8638815.848880839</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2847,17 +2729,11 @@
         <v>8935327.261080839</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2886,17 +2762,11 @@
         <v>8801806.280780839</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2925,17 +2795,11 @@
         <v>10534148.62928084</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2964,17 +2828,11 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3003,17 +2861,11 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3042,17 +2894,11 @@
         <v>11724578.29368846</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3081,17 +2927,11 @@
         <v>11724708.29368846</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3120,17 +2960,11 @@
         <v>11701088.87208845</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3159,17 +2993,11 @@
         <v>11701212.38988845</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3198,17 +3026,11 @@
         <v>11476717.14638845</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3237,17 +3059,11 @@
         <v>10969339.22208845</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3279,14 +3095,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3318,14 +3128,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3354,17 +3158,11 @@
         <v>10948013.59738846</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +3194,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3435,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +3260,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3549,17 +3323,11 @@
         <v>10948365.53518846</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3591,14 +3359,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3392,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3669,14 +3425,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3708,14 +3458,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3747,14 +3491,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3786,14 +3524,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3825,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3864,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3903,14 +3623,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3942,14 +3656,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3981,14 +3689,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4020,14 +3722,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4059,14 +3755,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4098,14 +3788,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4137,14 +3821,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4176,14 +3854,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4215,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4254,14 +3920,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4293,14 +3953,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4332,14 +3986,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4019,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4410,14 +4052,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4449,14 +4085,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4488,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4527,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4566,14 +4184,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4605,14 +4217,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4644,14 +4250,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4683,14 +4283,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4316,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4761,14 +4349,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4839,14 +4415,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4878,14 +4448,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4995,14 +4547,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5034,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5073,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5151,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5190,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5307,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5385,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5463,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5502,14 +4976,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5541,14 +5009,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5577,17 +5039,11 @@
         <v>20534365.15301316</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5616,17 +5072,11 @@
         <v>20295453.68511316</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5655,17 +5105,11 @@
         <v>20045495.96521316</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5694,17 +5138,11 @@
         <v>19685406.30091316</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5733,17 +5171,11 @@
         <v>19922135.12811316</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5772,17 +5204,11 @@
         <v>19120170.92721316</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5811,17 +5237,11 @@
         <v>18718222.98681316</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5850,17 +5270,11 @@
         <v>18195315.63161316</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5889,17 +5303,11 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5928,17 +5336,11 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5967,17 +5369,11 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5405,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6048,14 +5438,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6087,14 +5471,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6126,14 +5504,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6165,14 +5537,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6204,14 +5570,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6243,14 +5603,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6282,14 +5636,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6321,14 +5669,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6360,14 +5702,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6399,14 +5735,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6438,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6477,14 +5801,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6516,14 +5834,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6555,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6594,14 +5900,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6633,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6672,14 +5966,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6711,14 +5999,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6750,14 +6032,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6789,14 +6065,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6828,14 +6098,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6867,14 +6131,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6906,14 +6164,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6945,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6984,14 +6230,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7020,23 +6260,15 @@
         <v>21132645.23423544</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
-        <v>1.114224641529474</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.01427417182871</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7094,7 +6326,7 @@
         <v>20889238.66973544</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7160,7 +6392,7 @@
         <v>20334809.92970491</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7193,7 +6425,7 @@
         <v>20011741.06560491</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7226,7 +6458,7 @@
         <v>20250282.701059</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7259,7 +6491,7 @@
         <v>20234459.529959</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7292,7 +6524,7 @@
         <v>20234459.529959</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7325,7 +6557,7 @@
         <v>20494874.826459</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7358,7 +6590,7 @@
         <v>20226144.756259</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7391,7 +6623,7 @@
         <v>20276723.74260491</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7424,7 +6656,7 @@
         <v>20283636.82560491</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7457,7 +6689,7 @@
         <v>20969468.7914767</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7490,7 +6722,7 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7523,7 +6755,7 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7556,7 +6788,7 @@
         <v>22520682.72960512</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7589,7 +6821,7 @@
         <v>22500782.72960512</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7622,7 +6854,7 @@
         <v>22946339.27750512</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7655,7 +6887,7 @@
         <v>24031427.36960167</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7688,7 +6920,7 @@
         <v>25763886.98880512</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7721,7 +6953,7 @@
         <v>26343203.69760512</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7754,7 +6986,7 @@
         <v>24883867.89320512</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7787,7 +7019,7 @@
         <v>29141102.51530512</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7820,7 +7052,7 @@
         <v>29537289.03750512</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7853,7 +7085,7 @@
         <v>29378054.42420512</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7886,7 +7118,7 @@
         <v>30033711.09738312</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7985,7 +7217,7 @@
         <v>27928406.46457704</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8018,7 +7250,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -8051,7 +7283,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8084,7 +7316,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8117,7 +7349,7 @@
         <v>28651293.25097704</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8150,7 +7382,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8183,7 +7415,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8216,7 +7448,7 @@
         <v>28480483.26017703</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8249,7 +7481,7 @@
         <v>28439404.33837704</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8282,7 +7514,7 @@
         <v>26634946.0996094</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8315,7 +7547,7 @@
         <v>22199660.7864094</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8348,7 +7580,7 @@
         <v>23995466.84753494</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8381,7 +7613,7 @@
         <v>23882047.28123494</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8414,7 +7646,7 @@
         <v>23889077.05333494</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8447,7 +7679,7 @@
         <v>23792059.80803494</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8480,7 +7712,7 @@
         <v>23792059.80803494</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8513,7 +7745,7 @@
         <v>23854951.02043494</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8546,7 +7778,7 @@
         <v>23599992.60483893</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8579,7 +7811,7 @@
         <v>23652266.28093893</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8612,7 +7844,7 @@
         <v>24105723.83433893</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8645,7 +7877,7 @@
         <v>22202383.94803893</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8678,7 +7910,7 @@
         <v>22202383.94803893</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8711,7 +7943,7 @@
         <v>22057734.68893893</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8909,7 +8141,7 @@
         <v>20054388.05213893</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9239,7 +8471,7 @@
         <v>19892405.46903893</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9272,7 +8504,7 @@
         <v>19892405.46903893</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9338,7 +8570,7 @@
         <v>19372692.97053893</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9371,7 +8603,7 @@
         <v>19161800.23713893</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9404,7 +8636,7 @@
         <v>19577048.57903893</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9437,7 +8669,7 @@
         <v>19576927.57903893</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9470,7 +8702,7 @@
         <v>19534683.96953893</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9503,7 +8735,7 @@
         <v>19551683.96953893</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9734,7 +8966,7 @@
         <v>18727621.14793893</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -11219,7 +10451,7 @@
         <v>19407565.89165402</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11252,7 +10484,7 @@
         <v>19498551.62465402</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11285,7 +10517,7 @@
         <v>19548551.62465402</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11318,7 +10550,7 @@
         <v>19589720.24585402</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11351,7 +10583,7 @@
         <v>19642153.16095402</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11384,7 +10616,7 @@
         <v>19642274.81555402</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11549,7 +10781,7 @@
         <v>20430001.67315402</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11582,7 +10814,7 @@
         <v>20358345.85075402</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11615,7 +10847,7 @@
         <v>20378820.97605402</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11648,7 +10880,7 @@
         <v>20573182.11065402</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11681,7 +10913,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11714,7 +10946,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11747,7 +10979,7 @@
         <v>19540808.16763053</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11780,7 +11012,7 @@
         <v>19300092.19723053</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11813,7 +11045,7 @@
         <v>19510822.90063053</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11846,7 +11078,7 @@
         <v>19246930.45243054</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11879,7 +11111,7 @@
         <v>17458750.04083053</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11912,7 +11144,7 @@
         <v>17458515.60133053</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11945,7 +11177,7 @@
         <v>18834889.20073053</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11978,7 +11210,7 @@
         <v>18746116.22393053</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12011,7 +11243,7 @@
         <v>18501452.82883053</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12044,7 +11276,7 @@
         <v>18508739.47093053</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12077,7 +11309,7 @@
         <v>18238972.58963053</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12110,7 +11342,7 @@
         <v>18270887.76223053</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12143,7 +11375,7 @@
         <v>18113957.26393053</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12176,7 +11408,7 @@
         <v>18069363.26533053</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12209,7 +11441,7 @@
         <v>18065025.55913053</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12242,7 +11474,7 @@
         <v>17794682.85263053</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12275,7 +11507,7 @@
         <v>17794682.85263053</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12308,7 +11540,7 @@
         <v>17833605.56853053</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12341,7 +11573,7 @@
         <v>17239629.31753054</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12374,7 +11606,7 @@
         <v>16703054.63803053</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12407,7 +11639,7 @@
         <v>14669826.75603054</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12440,7 +11672,7 @@
         <v>15186324.60193053</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12473,7 +11705,7 @@
         <v>15562552.59813054</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12506,7 +11738,7 @@
         <v>15438412.66573054</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12539,7 +11771,7 @@
         <v>15254431.16363054</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12605,7 +11837,7 @@
         <v>15224185.73303054</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12638,7 +11870,7 @@
         <v>15176578.70383053</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12671,7 +11903,7 @@
         <v>15314216.04803053</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12704,7 +11936,7 @@
         <v>15186399.60733053</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12737,7 +11969,7 @@
         <v>15186399.60733053</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -16279,6 +15511,6 @@
       <c r="M449" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest PLY.xlsx
+++ b/BackTest/2020-01-24 BackTest PLY.xlsx
@@ -451,7 +451,7 @@
         <v>3238456.356209809</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>3231837.73250981</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.766</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -523,9 +527,13 @@
         <v>3.713</v>
       </c>
       <c r="J4" t="n">
-        <v>3.713</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>3.766</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,7 +568,7 @@
         <v>3.766</v>
       </c>
       <c r="J5" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -595,11 +603,13 @@
         <v>2849555.93260981</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.766</v>
+      </c>
       <c r="J6" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,7 +650,7 @@
         <v>3.706</v>
       </c>
       <c r="J7" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -681,7 +691,7 @@
         <v>3.766</v>
       </c>
       <c r="J8" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -722,7 +732,7 @@
         <v>3.731</v>
       </c>
       <c r="J9" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -763,7 +773,7 @@
         <v>3.731</v>
       </c>
       <c r="J10" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -804,7 +814,7 @@
         <v>3.731</v>
       </c>
       <c r="J11" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -845,7 +855,7 @@
         <v>3.721</v>
       </c>
       <c r="J12" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -886,7 +896,7 @@
         <v>3.71</v>
       </c>
       <c r="J13" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -927,7 +937,7 @@
         <v>3.715</v>
       </c>
       <c r="J14" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -968,7 +978,7 @@
         <v>3.718</v>
       </c>
       <c r="J15" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1009,7 +1019,7 @@
         <v>3.76</v>
       </c>
       <c r="J16" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1050,7 +1060,7 @@
         <v>3.787</v>
       </c>
       <c r="J17" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1085,11 +1095,13 @@
         <v>3417788.962188088</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.839</v>
+      </c>
       <c r="J18" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1128,7 +1140,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1163,11 +1175,13 @@
         <v>3362274.144688088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.787</v>
+      </c>
       <c r="J20" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1202,11 +1216,13 @@
         <v>3296578.539988088</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.787</v>
+      </c>
       <c r="J21" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1241,11 +1257,13 @@
         <v>1096578.539988088</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.777</v>
+      </c>
       <c r="J22" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1284,7 +1302,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1323,7 +1341,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1362,7 +1380,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1397,13 +1415,11 @@
         <v>232960.8024880884</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1444,7 +1460,7 @@
         <v>3.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1479,11 +1495,13 @@
         <v>997587.0189880885</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.747</v>
+      </c>
       <c r="J28" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1518,11 +1536,13 @@
         <v>997365.0189880885</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.817</v>
+      </c>
       <c r="J29" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1557,11 +1577,13 @@
         <v>997496.0189880885</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.736</v>
+      </c>
       <c r="J30" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1600,7 +1622,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1639,7 +1661,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1678,7 +1700,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1717,7 +1739,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1756,7 +1778,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1795,7 +1817,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1834,7 +1856,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1873,7 +1895,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1912,7 +1934,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1951,7 +1973,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1990,7 +2012,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2029,7 +2051,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2068,7 +2090,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2107,7 +2129,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2146,7 +2168,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2185,7 +2207,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2224,7 +2246,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2259,23 +2281,21 @@
         <v>9926279.070888456</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.713</v>
+        <v>3.766</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.069602747104767</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.01427417182871</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2303,8 +2323,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2362,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2399,11 +2437,17 @@
         <v>9552769.303388456</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2465,11 +2515,17 @@
         <v>9121679.810688457</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2557,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2596,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2635,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2597,11 +2671,17 @@
         <v>8993119.839980839</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2633,8 +2713,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2663,11 +2749,17 @@
         <v>8780117.256580839</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2696,11 +2788,17 @@
         <v>8638815.848880839</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2729,11 +2827,17 @@
         <v>8935327.261080839</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2762,11 +2866,17 @@
         <v>8801806.280780839</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2905,17 @@
         <v>10534148.62928084</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2944,17 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2983,17 @@
         <v>11729806.56568846</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +3022,17 @@
         <v>11724578.29368846</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3061,17 @@
         <v>11724708.29368846</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +3100,17 @@
         <v>11701088.87208845</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2993,11 +3139,17 @@
         <v>11701212.38988845</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +3178,17 @@
         <v>11476717.14638845</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3217,17 @@
         <v>10969339.22208845</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3095,8 +3259,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3128,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3334,17 @@
         <v>10948013.59738846</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3194,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3227,8 +3415,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3260,8 +3454,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3293,8 +3493,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3323,11 +3529,17 @@
         <v>10948365.53518846</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3359,8 +3571,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3392,8 +3610,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3425,8 +3649,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3458,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3491,8 +3727,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3524,8 +3766,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3557,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3590,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3623,8 +3883,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3656,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3689,8 +3961,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3722,8 +4000,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3755,8 +4039,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3788,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3821,8 +4117,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3854,8 +4156,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4195,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3920,8 +4234,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3953,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4019,8 +4351,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4052,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4085,8 +4429,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4151,8 +4507,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +4546,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4585,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4624,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4663,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +4702,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +4741,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +4780,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4415,8 +4819,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4448,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4481,8 +4897,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4514,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4547,8 +4975,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5053,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5092,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5131,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +5170,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5209,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4844,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5365,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5404,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4943,8 +5443,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4976,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5039,11 +5557,17 @@
         <v>20534365.15301316</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5072,11 +5596,17 @@
         <v>20295453.68511316</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5105,11 +5635,17 @@
         <v>20045495.96521316</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5674,17 @@
         <v>19685406.30091316</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5171,11 +5713,17 @@
         <v>19922135.12811316</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5204,11 +5752,17 @@
         <v>19120170.92721316</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5237,11 +5791,17 @@
         <v>18718222.98681316</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +5830,17 @@
         <v>18195315.63161316</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5869,17 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +5908,17 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +5947,17 @@
         <v>19252630.77481316</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5405,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5438,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5471,8 +6067,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5504,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5537,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5570,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5636,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5669,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5702,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5735,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5768,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5801,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5834,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5867,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5933,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5966,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5999,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6029,15 +6727,23 @@
         <v>21284066.22039454</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>1.131749867233139</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.01427417182871</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6062,7 +6768,7 @@
         <v>21277042.10426249</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6095,7 +6801,7 @@
         <v>21277042.10426249</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6128,7 +6834,7 @@
         <v>21266082.10426249</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6755,7 +7461,7 @@
         <v>21912135.56242072</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6788,7 +7494,7 @@
         <v>22520682.72960512</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6821,7 +7527,7 @@
         <v>22500782.72960512</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6920,7 +7626,7 @@
         <v>25763886.98880512</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6953,7 +7659,7 @@
         <v>26343203.69760512</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6986,7 +7692,7 @@
         <v>24883867.89320512</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7019,7 +7725,7 @@
         <v>29141102.51530512</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7052,7 +7758,7 @@
         <v>29537289.03750512</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7085,7 +7791,7 @@
         <v>29378054.42420512</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7118,7 +7824,7 @@
         <v>30033711.09738312</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7151,7 +7857,7 @@
         <v>30533546.25620512</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7184,7 +7890,7 @@
         <v>27689984.70447704</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7217,7 +7923,7 @@
         <v>27928406.46457704</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7250,7 +7956,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7283,7 +7989,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7316,7 +8022,7 @@
         <v>29194934.02527704</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7349,7 +8055,7 @@
         <v>28651293.25097704</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7382,7 +8088,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7415,7 +8121,7 @@
         <v>28482578.29857704</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7448,7 +8154,7 @@
         <v>28480483.26017703</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7481,7 +8187,7 @@
         <v>28439404.33837704</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -10946,7 +11652,7 @@
         <v>20481560.63595401</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
